--- a/biology/Botanique/Hordeinae/Hordeinae.xlsx
+++ b/biology/Botanique/Hordeinae/Hordeinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hordeinae sont une sous-tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, qui comprend 22 genres et 448 espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hordeinae sont une sous-tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, qui comprend 22 genres et 448 espèces.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Soreng et al.[2] :
-Elyminae Benth. [1881],
-Agropyrinae Nevski [1933],
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Soreng et al. :
+Elyminae Benth. ,
+Agropyrinae Nevski ,
 Clinelyminae Nevski [1933, nom. illeg.],
-Roegneriinae Nevski [1933],
-Henrardiinae C.E. Hubb. [1948]</t>
+Roegneriinae Nevski ,
+Henrardiinae C.E. Hubb. </t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Soreng et al.[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Soreng et al.
 Agropyron,
 Anthosachne,
 Australopyrum,
